--- a/data/577 Projects/2011-2012/file list.xlsx
+++ b/data/577 Projects/2011-2012/file list.xlsx
@@ -37,7 +37,7 @@
     <t>~\577 projects\fall2015\projects\team01\team01b\Development\RCP</t>
   </si>
   <si>
-    <t>Example.</t>
+    <t>This is an exampke for the things to fill. The URL should be point to the folder where the LCP, SSAD, OCD are found.</t>
   </si>
 </sst>
 </file>
@@ -411,13 +411,13 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">

--- a/data/577 Projects/2011-2012/file list.xlsx
+++ b/data/577 Projects/2011-2012/file list.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,36 +14,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>PROJ</t>
   </si>
   <si>
-    <t>s16b_Picshare_RA</t>
-  </si>
-  <si>
     <t>Team. NO.</t>
   </si>
   <si>
     <t>Semester</t>
   </si>
   <si>
-    <t>fall2015/spring2016</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
-    <t>~\577 projects\fall2015\projects\team01\team01b\Development\RCP</t>
-  </si>
-  <si>
-    <t>This is an exampke for the things to fill. The URL should be point to the folder where the LCP, SSAD, OCD are found.</t>
+    <t>Fall 11/Spring 12</t>
+  </si>
+  <si>
+    <t>Fall 11</t>
+  </si>
+  <si>
+    <t>LEMA FAMILY ACCOUNTABILITY SYSTEM</t>
+  </si>
+  <si>
+    <t>Leamos(TM)</t>
+  </si>
+  <si>
+    <t>Amer I Can Re-Up</t>
+  </si>
+  <si>
+    <t>Los Angeles Child Guidance Clinic Employment Opportunities Online Application System</t>
+  </si>
+  <si>
+    <t>CRCD Management System</t>
+  </si>
+  <si>
+    <t>LEMA Pilot School Integrated Scheduling System</t>
+  </si>
+  <si>
+    <t>Transportation Grant Fund Database</t>
+  </si>
+  <si>
+    <t>The Los Angeles Community Garden Inventory and Locator</t>
+  </si>
+  <si>
+    <t>Improving Thai CDC</t>
+  </si>
+  <si>
+    <t>Istartonmonday.com</t>
+  </si>
+  <si>
+    <t>Mission Science Information and Database System</t>
+  </si>
+  <si>
+    <t>LADOT SCANNING</t>
+  </si>
+  <si>
+    <t>~\577 projects\spring2012\projects\team05\FD</t>
+  </si>
+  <si>
+    <t>~\577 projects\spring2012\projects\team11\FD</t>
+  </si>
+  <si>
+    <t>~\577 projects\spring2012\projects\team12b\Development</t>
+  </si>
+  <si>
+    <t>~\577 projects\spring2012\projects\team13\Development</t>
+  </si>
+  <si>
+    <t>~\577 projects\spring2012\projects\team14\Development\IOC2</t>
+  </si>
+  <si>
+    <t>~\577 projects\fall2011\projects\team01\team01a\FD</t>
+  </si>
+  <si>
+    <t>~\577 projects\fall2011\projects\team03\team03a\FD</t>
+  </si>
+  <si>
+    <t>~\577 projects\fall2011\projects\team04\team04a\FinalDelivery</t>
+  </si>
+  <si>
+    <t>~\577 projects\fall2011\projects\team06\team06a\FD</t>
+  </si>
+  <si>
+    <t>~\577 projects\fall2011\projects\team08\team08a\FD</t>
+  </si>
+  <si>
+    <t>~\577 projects\fall2011\projects\team09\team09a\FD</t>
+  </si>
+  <si>
+    <t>~\577 projects\fall2011\projects\team10\finaldeliverables</t>
+  </si>
+  <si>
+    <t>~\577 projects\fall2011\projects\team07\Foundations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -54,13 +123,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,12 +138,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -98,12 +160,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,6 +269,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -232,6 +321,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,47 +514,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="21.21875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/577 Projects/2011-2012/file list.xlsx
+++ b/data/577 Projects/2011-2012/file list.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>PROJ</t>
   </si>
@@ -107,12 +107,51 @@
   </si>
   <si>
     <t>~\577 projects\fall2011\projects\team07\Foundations</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Amer_I_Can_Re_Up</t>
+  </si>
+  <si>
+    <t>Los_Angeles_Child_Guidance_Clinic_Employment_Opportunities_Online_Application_System</t>
+  </si>
+  <si>
+    <t>CRCD_Management_System</t>
+  </si>
+  <si>
+    <t>LEMA_Pilot_School_Integrated_Scheduling_System</t>
+  </si>
+  <si>
+    <t>The_Los_Angeles_Community_Garden_Inventory_and_Locator</t>
+  </si>
+  <si>
+    <t>Transportation_Grant_Fund_Database</t>
+  </si>
+  <si>
+    <t>Improving_Thai_CDC</t>
+  </si>
+  <si>
+    <t>Istartonmonday_com</t>
+  </si>
+  <si>
+    <t>Leamos_TM</t>
+  </si>
+  <si>
+    <t>LEMA_FAMILY_ACCOUNTABILITY_SYSTEM</t>
+  </si>
+  <si>
+    <t>Mission_Science_Information_and_Database_System</t>
+  </si>
+  <si>
+    <t>LADOT_SCANNING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -269,23 +308,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -321,23 +343,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,21 +519,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="21.21875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="55.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="34.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="55.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -538,11 +543,14 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -552,11 +560,14 @@
       <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>3</v>
       </c>
@@ -566,11 +577,14 @@
       <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -580,11 +594,14 @@
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>5</v>
       </c>
@@ -594,11 +611,14 @@
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>6</v>
       </c>
@@ -608,11 +628,14 @@
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>7</v>
       </c>
@@ -622,11 +645,14 @@
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>8</v>
       </c>
@@ -636,11 +662,14 @@
       <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>9</v>
       </c>
@@ -650,11 +679,14 @@
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>10</v>
       </c>
@@ -664,11 +696,14 @@
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>11</v>
       </c>
@@ -678,11 +713,14 @@
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>12</v>
       </c>
@@ -692,11 +730,14 @@
       <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>13</v>
       </c>
@@ -706,11 +747,14 @@
       <c r="C13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>14</v>
       </c>
@@ -720,7 +764,10 @@
       <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
     </row>
